--- a/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
+++ b/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\SoCaOMSbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/indst/socaomsbric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DABA530-C33B-4F73-A967-9FDE6D8AA718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64A33A5-B708-4244-99C1-CB283C5136DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="45" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="25660" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -351,7 +351,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -365,6 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -793,14 +794,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="9">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -813,32 +817,32 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
@@ -848,57 +852,57 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -918,12 +922,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -943,7 +947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -963,7 +967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -983,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1045,7 +1049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1068,7 +1072,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>0.40358302858715744</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>9.0808855334041122E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>0.24964177578545868</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1184,7 +1188,7 @@
         <v>7.2036490896936797E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>0.18392984939640594</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -1221,12 +1225,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>2.8400000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>46</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>1.2600000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -1253,12 +1257,12 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -1266,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -1284,17 +1288,17 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>0.34634146341463423</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>0.15365853658536591</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -1321,12 +1325,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -1335,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>46</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -1353,12 +1357,12 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <f>22600000</f>
         <v>22600000</v>
@@ -1367,7 +1371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <f>9.64*550*8760*0.5</f>
         <v>23222760</v>
@@ -1376,12 +1380,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>0.17552423038085946</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>46</v>
       </c>
@@ -1399,7 +1403,7 @@
         <v>0.43955686323579163</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -1420,7 +1424,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1436,16 +1440,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="26" width="9.85546875" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" customWidth="1"/>
-    <col min="29" max="43" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="26" width="9.83203125" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" customWidth="1"/>
+    <col min="28" max="28" width="10.5" customWidth="1"/>
+    <col min="29" max="43" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1576,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>

--- a/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
+++ b/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/indst/socaomsbric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/socaomsbric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64A33A5-B708-4244-99C1-CB283C5136DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066A73FB-F2BA-DF4D-9DE5-7D00F7E19B95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="25660" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="25660" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>

--- a/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
+++ b/InputData/indst/SoCaOMSbRIC/Share of Capital and OM Spending by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/socaomsbric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\SoCaOMSbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066A73FB-F2BA-DF4D-9DE5-7D00F7E19B95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DABA530-C33B-4F73-A967-9FDE6D8AA718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="25660" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="45" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -351,7 +351,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -365,7 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -794,17 +793,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="9">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -817,32 +813,32 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
@@ -852,57 +848,57 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -922,12 +918,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -947,7 +943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -967,7 +963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -987,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1007,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1027,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1049,7 +1045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1072,7 +1068,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1101,7 +1097,7 @@
         <v>0.40358302858715744</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1130,7 +1126,7 @@
         <v>9.0808855334041122E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>0.24964177578545868</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1188,7 +1184,7 @@
         <v>7.2036490896936797E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1217,7 +1213,7 @@
         <v>0.18392984939640594</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -1225,12 +1221,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -1239,7 +1235,7 @@
         <v>2.8400000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>46</v>
       </c>
@@ -1248,7 +1244,7 @@
         <v>1.2600000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -1257,12 +1253,12 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -1270,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -1279,7 +1275,7 @@
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -1288,17 +1284,17 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -1307,7 +1303,7 @@
         <v>0.34634146341463423</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -1316,7 +1312,7 @@
         <v>0.15365853658536591</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -1325,12 +1321,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -1339,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>46</v>
       </c>
@@ -1348,7 +1344,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -1357,12 +1353,12 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>22600000</f>
         <v>22600000</v>
@@ -1371,7 +1367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>9.64*550*8760*0.5</f>
         <v>23222760</v>
@@ -1380,12 +1376,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -1394,7 +1390,7 @@
         <v>0.17552423038085946</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>46</v>
       </c>
@@ -1403,7 +1399,7 @@
         <v>0.43955686323579163</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -1424,7 +1420,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1440,16 +1436,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="26" width="9.83203125" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" customWidth="1"/>
-    <col min="28" max="28" width="10.5" customWidth="1"/>
-    <col min="29" max="43" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="26" width="9.85546875" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" customWidth="1"/>
+    <col min="29" max="43" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1580,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
